--- a/pred_ohlcv/54_23/2019-10-09 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-09 ZRX ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -461,7 +461,7 @@
         <v>325</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -484,7 +484,7 @@
         <v>320</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2117,7 +2117,7 @@
         <v>323</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -2140,7 +2140,7 @@
         <v>323</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -2347,7 +2347,7 @@
         <v>323</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -2370,7 +2370,7 @@
         <v>324</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>323</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -2485,7 +2485,7 @@
         <v>323</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -2508,7 +2508,7 @@
         <v>324</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -2531,7 +2531,7 @@
         <v>324</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -2554,7 +2554,7 @@
         <v>324</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -2577,7 +2577,7 @@
         <v>326</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -2600,7 +2600,7 @@
         <v>326</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -2623,7 +2623,7 @@
         <v>325</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -2646,7 +2646,7 @@
         <v>324</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -2669,7 +2669,7 @@
         <v>325</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -2692,7 +2692,7 @@
         <v>325</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -2715,7 +2715,7 @@
         <v>325</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>325</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -2761,7 +2761,7 @@
         <v>326</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -2784,7 +2784,7 @@
         <v>326</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -2807,7 +2807,7 @@
         <v>326</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -2830,7 +2830,7 @@
         <v>326</v>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -2876,7 +2876,7 @@
         <v>327</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -2899,7 +2899,7 @@
         <v>327</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>328</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -3083,7 +3083,7 @@
         <v>328</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -3244,7 +3244,7 @@
         <v>331</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>328</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -3405,7 +3405,7 @@
         <v>329</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -3428,7 +3428,7 @@
         <v>330</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -3451,7 +3451,7 @@
         <v>328</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>329</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>328</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -3520,7 +3520,7 @@
         <v>327</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -3543,7 +3543,7 @@
         <v>327</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>330</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -3589,7 +3589,7 @@
         <v>330</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>330</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -3635,7 +3635,7 @@
         <v>332</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -3658,7 +3658,7 @@
         <v>333</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -3681,7 +3681,7 @@
         <v>333</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -3727,7 +3727,7 @@
         <v>332</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -3750,7 +3750,7 @@
         <v>330</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -3773,7 +3773,7 @@
         <v>332</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -3796,7 +3796,7 @@
         <v>330</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -3819,7 +3819,7 @@
         <v>330</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -3842,7 +3842,7 @@
         <v>329</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -3865,7 +3865,7 @@
         <v>328</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -3888,7 +3888,7 @@
         <v>329</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>328</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -3934,7 +3934,7 @@
         <v>327</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -6303,7 +6303,7 @@
         <v>300</v>
       </c>
       <c r="F258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -6326,7 +6326,7 @@
         <v>299</v>
       </c>
       <c r="F259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>301</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>301</v>
       </c>
       <c r="F263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>